--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.246472</v>
+        <v>26.515623</v>
       </c>
       <c r="H2">
-        <v>30.492944</v>
+        <v>53.031246</v>
       </c>
       <c r="I2">
-        <v>0.05110757272998512</v>
+        <v>0.06656000453070991</v>
       </c>
       <c r="J2">
-        <v>0.03765554015385332</v>
+        <v>0.05018593214398509</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0215165</v>
+        <v>6.861577</v>
       </c>
       <c r="N2">
-        <v>0.043033</v>
+        <v>20.584731</v>
       </c>
       <c r="O2">
-        <v>0.005938751083393454</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P2">
-        <v>0.00396702043790345</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q2">
-        <v>0.328050714788</v>
+        <v>181.938988917471</v>
       </c>
       <c r="R2">
-        <v>1.312202859152</v>
+        <v>1091.633933504826</v>
       </c>
       <c r="S2">
-        <v>0.0003035151529198089</v>
+        <v>0.001566819001246716</v>
       </c>
       <c r="T2">
-        <v>0.0001493802973906302</v>
+        <v>0.001181374199609531</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.246472</v>
+        <v>26.515623</v>
       </c>
       <c r="H3">
-        <v>30.492944</v>
+        <v>53.031246</v>
       </c>
       <c r="I3">
-        <v>0.05110757272998512</v>
+        <v>0.06656000453070991</v>
       </c>
       <c r="J3">
-        <v>0.03765554015385332</v>
+        <v>0.05018593214398509</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>3.398996666666667</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N3">
-        <v>10.19699</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O3">
-        <v>0.938154213585732</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P3">
-        <v>0.940015052055332</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q3">
-        <v>51.82270750642666</v>
+        <v>7494.804406989745</v>
       </c>
       <c r="R3">
-        <v>310.9362450385599</v>
+        <v>44968.82644193847</v>
       </c>
       <c r="S3">
-        <v>0.0479467847027748</v>
+        <v>0.06454362545031996</v>
       </c>
       <c r="T3">
-        <v>0.03539677453789607</v>
+        <v>0.04866559174709836</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.246472</v>
+        <v>26.515623</v>
       </c>
       <c r="H4">
-        <v>30.492944</v>
+        <v>53.031246</v>
       </c>
       <c r="I4">
-        <v>0.05110757272998512</v>
+        <v>0.06656000453070991</v>
       </c>
       <c r="J4">
-        <v>0.03765554015385332</v>
+        <v>0.05018593214398509</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07911866666666666</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N4">
-        <v>0.237356</v>
+        <v>5.906281</v>
       </c>
       <c r="O4">
-        <v>0.02183747669850171</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P4">
-        <v>0.02188079155668931</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q4">
-        <v>1.206280536010667</v>
+        <v>52.202906776021</v>
       </c>
       <c r="R4">
-        <v>7.237683216063999</v>
+        <v>313.217440656126</v>
       </c>
       <c r="S4">
-        <v>0.001116060428608032</v>
+        <v>0.0004495600791432473</v>
       </c>
       <c r="T4">
-        <v>0.0008239330250610091</v>
+        <v>0.0003389661972771945</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.246472</v>
+        <v>119.5028333333333</v>
       </c>
       <c r="H5">
-        <v>30.492944</v>
+        <v>358.5085</v>
       </c>
       <c r="I5">
-        <v>0.05110757272998512</v>
+        <v>0.299978210132922</v>
       </c>
       <c r="J5">
-        <v>0.03765554015385332</v>
+        <v>0.339273251359055</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1234363333333333</v>
+        <v>6.861577</v>
       </c>
       <c r="N5">
-        <v>0.370309</v>
+        <v>20.584731</v>
       </c>
       <c r="O5">
-        <v>0.03406955863237277</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P5">
-        <v>0.03413713595007526</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q5">
-        <v>1.881968599949333</v>
+        <v>819.9778926348332</v>
       </c>
       <c r="R5">
-        <v>11.291811599696</v>
+        <v>7379.801033713498</v>
       </c>
       <c r="S5">
-        <v>0.001741212445682484</v>
+        <v>0.007061471268070381</v>
       </c>
       <c r="T5">
-        <v>0.001285452293505609</v>
+        <v>0.007986474469046297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>358.5085</v>
       </c>
       <c r="I6">
-        <v>0.4005844595407137</v>
+        <v>0.299978210132922</v>
       </c>
       <c r="J6">
-        <v>0.442719837653187</v>
+        <v>0.339273251359055</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0215165</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N6">
-        <v>0.043033</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O6">
-        <v>0.005938751083393454</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P6">
-        <v>0.00396702043790345</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q6">
-        <v>2.571282713416667</v>
+        <v>33778.21301481122</v>
       </c>
       <c r="R6">
-        <v>15.4276962805</v>
+        <v>304003.917133301</v>
       </c>
       <c r="S6">
-        <v>0.002378971393087995</v>
+        <v>0.290890623800115</v>
       </c>
       <c r="T6">
-        <v>0.00175627864423549</v>
+        <v>0.328995254964679</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>358.5085</v>
       </c>
       <c r="I7">
-        <v>0.4005844595407137</v>
+        <v>0.299978210132922</v>
       </c>
       <c r="J7">
-        <v>0.442719837653187</v>
+        <v>0.339273251359055</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>3.398996666666667</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N7">
-        <v>10.19699</v>
+        <v>5.906281</v>
       </c>
       <c r="O7">
-        <v>0.938154213585732</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P7">
-        <v>0.940015052055332</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q7">
-        <v>406.1897321572222</v>
+        <v>235.2724379876111</v>
       </c>
       <c r="R7">
-        <v>3655.707589414999</v>
+        <v>2117.4519418885</v>
       </c>
       <c r="S7">
-        <v>0.3758099986150837</v>
+        <v>0.002026115064736576</v>
       </c>
       <c r="T7">
-        <v>0.4161633112374887</v>
+        <v>0.002291521925329664</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>119.5028333333333</v>
+        <v>38.63687266666667</v>
       </c>
       <c r="H8">
-        <v>358.5085</v>
+        <v>115.910618</v>
       </c>
       <c r="I8">
-        <v>0.4005844595407137</v>
+        <v>0.09698698837835323</v>
       </c>
       <c r="J8">
-        <v>0.442719837653187</v>
+        <v>0.1096916035070226</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.07911866666666666</v>
+        <v>6.861577</v>
       </c>
       <c r="N8">
-        <v>0.237356</v>
+        <v>20.584731</v>
       </c>
       <c r="O8">
-        <v>0.02183747669850171</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P8">
-        <v>0.02188079155668931</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q8">
-        <v>9.454904836222221</v>
+        <v>265.1098768415287</v>
       </c>
       <c r="R8">
-        <v>85.09414352599998</v>
+        <v>2385.988891573758</v>
       </c>
       <c r="S8">
-        <v>0.008747753801002237</v>
+        <v>0.002283068598572367</v>
       </c>
       <c r="T8">
-        <v>0.009687060485700717</v>
+        <v>0.002582134569608191</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>119.5028333333333</v>
+        <v>38.63687266666667</v>
       </c>
       <c r="H9">
-        <v>358.5085</v>
+        <v>115.910618</v>
       </c>
       <c r="I9">
-        <v>0.4005844595407137</v>
+        <v>0.09698698837835323</v>
       </c>
       <c r="J9">
-        <v>0.442719837653187</v>
+        <v>0.1096916035070226</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1234363333333333</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N9">
-        <v>0.370309</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O9">
-        <v>0.03406955863237277</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P9">
-        <v>0.03413713595007526</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q9">
-        <v>14.75099156961111</v>
+        <v>10920.95039722186</v>
       </c>
       <c r="R9">
-        <v>132.7589241265</v>
+        <v>98288.55357499669</v>
       </c>
       <c r="S9">
-        <v>0.0136477357315397</v>
+        <v>0.09404884953934661</v>
       </c>
       <c r="T9">
-        <v>0.01511318728576209</v>
+        <v>0.1063685890907008</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.507309</v>
+        <v>38.63687266666667</v>
       </c>
       <c r="H10">
-        <v>130.521927</v>
+        <v>115.910618</v>
       </c>
       <c r="I10">
-        <v>0.1458404907708115</v>
+        <v>0.09698698837835323</v>
       </c>
       <c r="J10">
-        <v>0.1611806870175216</v>
+        <v>0.1096916035070226</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0215165</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N10">
-        <v>0.043033</v>
+        <v>5.906281</v>
       </c>
       <c r="O10">
-        <v>0.005938751083393454</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P10">
-        <v>0.00396702043790345</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q10">
-        <v>0.9361250140985</v>
+        <v>76.06674231018422</v>
       </c>
       <c r="R10">
-        <v>5.616750084591001</v>
+        <v>684.600680791658</v>
       </c>
       <c r="S10">
-        <v>0.00086611037256779</v>
+        <v>0.0006550702404342617</v>
       </c>
       <c r="T10">
-        <v>0.0006394070795938273</v>
+        <v>0.0007408798467135682</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>43.507309</v>
+        <v>111.904068</v>
       </c>
       <c r="H11">
-        <v>130.521927</v>
+        <v>223.808136</v>
       </c>
       <c r="I11">
-        <v>0.1458404907708115</v>
+        <v>0.2809036496364755</v>
       </c>
       <c r="J11">
-        <v>0.1611806870175216</v>
+        <v>0.2118000381617997</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>3.398996666666667</v>
+        <v>6.861577</v>
       </c>
       <c r="N11">
-        <v>10.19699</v>
+        <v>20.584731</v>
       </c>
       <c r="O11">
-        <v>0.938154213585732</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P11">
-        <v>0.940015052055332</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q11">
-        <v>147.8811982666367</v>
+        <v>767.8383791952359</v>
       </c>
       <c r="R11">
-        <v>1330.93078439973</v>
+        <v>4607.030275171415</v>
       </c>
       <c r="S11">
-        <v>0.1368208709280479</v>
+        <v>0.006612457118552508</v>
       </c>
       <c r="T11">
-        <v>0.1515122718970897</v>
+        <v>0.004985761743804796</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.507309</v>
+        <v>111.904068</v>
       </c>
       <c r="H12">
-        <v>130.521927</v>
+        <v>223.808136</v>
       </c>
       <c r="I12">
-        <v>0.1458404907708115</v>
+        <v>0.2809036496364755</v>
       </c>
       <c r="J12">
-        <v>0.1611806870175216</v>
+        <v>0.2118000381617997</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.07911866666666666</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N12">
-        <v>0.237356</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O12">
-        <v>0.02183747669850171</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P12">
-        <v>0.02188079155668931</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q12">
-        <v>3.442240278334666</v>
+        <v>31630.37511909413</v>
       </c>
       <c r="R12">
-        <v>30.980162505012</v>
+        <v>189782.2507145648</v>
       </c>
       <c r="S12">
-        <v>0.003184788318905651</v>
+        <v>0.272393910991989</v>
       </c>
       <c r="T12">
-        <v>0.003526761015594368</v>
+        <v>0.2053837350202005</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.507309</v>
+        <v>111.904068</v>
       </c>
       <c r="H13">
-        <v>130.521927</v>
+        <v>223.808136</v>
       </c>
       <c r="I13">
-        <v>0.1458404907708115</v>
+        <v>0.2809036496364755</v>
       </c>
       <c r="J13">
-        <v>0.1611806870175216</v>
+        <v>0.2118000381617997</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1234363333333333</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N13">
-        <v>0.370309</v>
+        <v>5.906281</v>
       </c>
       <c r="O13">
-        <v>0.03406955863237277</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P13">
-        <v>0.03413713595007526</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q13">
-        <v>5.370382696160333</v>
+        <v>220.312290217036</v>
       </c>
       <c r="R13">
-        <v>48.333444265443</v>
+        <v>1321.873741302216</v>
       </c>
       <c r="S13">
-        <v>0.004968721151290184</v>
+        <v>0.001897281525934025</v>
       </c>
       <c r="T13">
-        <v>0.005502247025243664</v>
+        <v>0.001430541397794371</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>69.930711</v>
+        <v>41.854159</v>
       </c>
       <c r="H14">
-        <v>139.861422</v>
+        <v>125.562477</v>
       </c>
       <c r="I14">
-        <v>0.2344141581404584</v>
+        <v>0.1050630797047104</v>
       </c>
       <c r="J14">
-        <v>0.1727139692414096</v>
+        <v>0.1188256061445867</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0215165</v>
+        <v>6.861577</v>
       </c>
       <c r="N14">
-        <v>0.043033</v>
+        <v>20.584731</v>
       </c>
       <c r="O14">
-        <v>0.005938751083393454</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P14">
-        <v>0.00396702043790345</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q14">
-        <v>1.5046641432315</v>
+        <v>287.185534748743</v>
       </c>
       <c r="R14">
-        <v>6.018656572926001</v>
+        <v>2584.669812738687</v>
       </c>
       <c r="S14">
-        <v>0.001392127335619412</v>
+        <v>0.002473179363064608</v>
       </c>
       <c r="T14">
-        <v>0.0006851598458920996</v>
+        <v>0.002797148510650969</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>69.930711</v>
+        <v>41.854159</v>
       </c>
       <c r="H15">
-        <v>139.861422</v>
+        <v>125.562477</v>
       </c>
       <c r="I15">
-        <v>0.2344141581404584</v>
+        <v>0.1050630797047104</v>
       </c>
       <c r="J15">
-        <v>0.1727139692414096</v>
+        <v>0.1188256061445867</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>3.398996666666667</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N15">
-        <v>10.19699</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O15">
-        <v>0.938154213585732</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P15">
-        <v>0.940015052055332</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q15">
-        <v>237.69425358663</v>
+        <v>11830.33622570549</v>
       </c>
       <c r="R15">
-        <v>1426.16552151978</v>
+        <v>106473.0260313493</v>
       </c>
       <c r="S15">
-        <v>0.2199166301836232</v>
+        <v>0.1018802825049269</v>
       </c>
       <c r="T15">
-        <v>0.1623537307871466</v>
+        <v>0.1152258848384673</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>69.930711</v>
+        <v>41.854159</v>
       </c>
       <c r="H16">
-        <v>139.861422</v>
+        <v>125.562477</v>
       </c>
       <c r="I16">
-        <v>0.2344141581404584</v>
+        <v>0.1050630797047104</v>
       </c>
       <c r="J16">
-        <v>0.1727139692414096</v>
+        <v>0.1188256061445867</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.07911866666666666</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N16">
-        <v>0.237356</v>
+        <v>5.906281</v>
       </c>
       <c r="O16">
-        <v>0.02183747669850171</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P16">
-        <v>0.02188079155668931</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q16">
-        <v>5.532824613371999</v>
+        <v>82.40080802422634</v>
       </c>
       <c r="R16">
-        <v>33.196947680232</v>
+        <v>741.607272218037</v>
       </c>
       <c r="S16">
-        <v>0.005119013716191156</v>
+        <v>0.0007096178367189057</v>
       </c>
       <c r="T16">
-        <v>0.003779118359899732</v>
+        <v>0.0008025727954684526</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,70 +1464,70 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>69.930711</v>
+        <v>59.95815666666666</v>
       </c>
       <c r="H17">
-        <v>139.861422</v>
+        <v>179.87447</v>
       </c>
       <c r="I17">
-        <v>0.2344141581404584</v>
+        <v>0.1505080676168291</v>
       </c>
       <c r="J17">
-        <v>0.1727139692414096</v>
+        <v>0.1702235686835508</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1234363333333333</v>
+        <v>6.861577</v>
       </c>
       <c r="N17">
-        <v>0.370309</v>
+        <v>20.584731</v>
       </c>
       <c r="O17">
-        <v>0.03406955863237277</v>
+        <v>0.02353994733464609</v>
       </c>
       <c r="P17">
-        <v>0.03413713595007526</v>
+        <v>0.02353994733464608</v>
       </c>
       <c r="Q17">
-        <v>8.631990553233001</v>
+        <v>411.4075087463966</v>
       </c>
       <c r="R17">
-        <v>51.791943319398</v>
+        <v>3702.667578717569</v>
       </c>
       <c r="S17">
-        <v>0.007986386905024651</v>
+        <v>0.003542951985139509</v>
       </c>
       <c r="T17">
-        <v>0.005895960248471115</v>
+        <v>0.004007053841926297</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.094161</v>
+        <v>59.95815666666666</v>
       </c>
       <c r="H18">
-        <v>33.282483</v>
+        <v>179.87447</v>
       </c>
       <c r="I18">
-        <v>0.0371886453591142</v>
+        <v>0.1505080676168291</v>
       </c>
       <c r="J18">
-        <v>0.04110032389874984</v>
+        <v>0.1702235686835508</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0215165</v>
+        <v>282.6561686666666</v>
       </c>
       <c r="N18">
-        <v>0.043033</v>
+        <v>847.9685059999999</v>
       </c>
       <c r="O18">
-        <v>0.005938751083393454</v>
+        <v>0.9697058452052895</v>
       </c>
       <c r="P18">
-        <v>0.00396702043790345</v>
+        <v>0.9697058452052894</v>
       </c>
       <c r="Q18">
-        <v>0.2387075151565</v>
+        <v>16947.54284371575</v>
       </c>
       <c r="R18">
-        <v>1.432245090939</v>
+        <v>152527.8855934418</v>
       </c>
       <c r="S18">
-        <v>0.0002208541079163744</v>
+        <v>0.1459485529185921</v>
       </c>
       <c r="T18">
-        <v>0.0001630458249107922</v>
+        <v>0.1650667895441433</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,418 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.094161</v>
+        <v>59.95815666666666</v>
       </c>
       <c r="H19">
-        <v>33.282483</v>
+        <v>179.87447</v>
       </c>
       <c r="I19">
-        <v>0.0371886453591142</v>
+        <v>0.1505080676168291</v>
       </c>
       <c r="J19">
-        <v>0.04110032389874984</v>
+        <v>0.1702235686835508</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>3.398996666666667</v>
+        <v>1.968760333333333</v>
       </c>
       <c r="N19">
-        <v>10.19699</v>
+        <v>5.906281</v>
       </c>
       <c r="O19">
-        <v>0.938154213585732</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="P19">
-        <v>0.940015052055332</v>
+        <v>0.006754207460064492</v>
       </c>
       <c r="Q19">
-        <v>37.70901625846333</v>
+        <v>118.0432405051189</v>
       </c>
       <c r="R19">
-        <v>339.38114632617</v>
+        <v>1062.38916454607</v>
       </c>
       <c r="S19">
-        <v>0.03488868434119846</v>
+        <v>0.001016562713097478</v>
       </c>
       <c r="T19">
-        <v>0.03863492310917434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>11.094161</v>
-      </c>
-      <c r="H20">
-        <v>33.282483</v>
-      </c>
-      <c r="I20">
-        <v>0.0371886453591142</v>
-      </c>
-      <c r="J20">
-        <v>0.04110032389874984</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.07911866666666666</v>
-      </c>
-      <c r="N20">
-        <v>0.237356</v>
-      </c>
-      <c r="O20">
-        <v>0.02183747669850171</v>
-      </c>
-      <c r="P20">
-        <v>0.02188079155668931</v>
-      </c>
-      <c r="Q20">
-        <v>0.8777552261053332</v>
-      </c>
-      <c r="R20">
-        <v>7.899797034948</v>
-      </c>
-      <c r="S20">
-        <v>0.0008121061764785002</v>
-      </c>
-      <c r="T20">
-        <v>0.0008993076201409615</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>11.094161</v>
-      </c>
-      <c r="H21">
-        <v>33.282483</v>
-      </c>
-      <c r="I21">
-        <v>0.0371886453591142</v>
-      </c>
-      <c r="J21">
-        <v>0.04110032389874984</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.1234363333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.370309</v>
-      </c>
-      <c r="O21">
-        <v>0.03406955863237277</v>
-      </c>
-      <c r="P21">
-        <v>0.03413713595007526</v>
-      </c>
-      <c r="Q21">
-        <v>1.369422555249667</v>
-      </c>
-      <c r="R21">
-        <v>12.324802997247</v>
-      </c>
-      <c r="S21">
-        <v>0.001267000733520859</v>
-      </c>
-      <c r="T21">
-        <v>0.001403047344523751</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>39.03970533333333</v>
-      </c>
-      <c r="H22">
-        <v>117.119116</v>
-      </c>
-      <c r="I22">
-        <v>0.130864673458917</v>
-      </c>
-      <c r="J22">
-        <v>0.1446296420352789</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.5</v>
-      </c>
-      <c r="M22">
-        <v>0.0215165</v>
-      </c>
-      <c r="N22">
-        <v>0.043033</v>
-      </c>
-      <c r="O22">
-        <v>0.005938751083393454</v>
-      </c>
-      <c r="P22">
-        <v>0.00396702043790345</v>
-      </c>
-      <c r="Q22">
-        <v>0.8399978198046666</v>
-      </c>
-      <c r="R22">
-        <v>5.039986918828</v>
-      </c>
-      <c r="S22">
-        <v>0.000777172721282074</v>
-      </c>
-      <c r="T22">
-        <v>0.0005737487458806112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>39.03970533333333</v>
-      </c>
-      <c r="H23">
-        <v>117.119116</v>
-      </c>
-      <c r="I23">
-        <v>0.130864673458917</v>
-      </c>
-      <c r="J23">
-        <v>0.1446296420352789</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>3.398996666666667</v>
-      </c>
-      <c r="N23">
-        <v>10.19699</v>
-      </c>
-      <c r="O23">
-        <v>0.938154213585732</v>
-      </c>
-      <c r="P23">
-        <v>0.940015052055332</v>
-      </c>
-      <c r="Q23">
-        <v>132.6958282956489</v>
-      </c>
-      <c r="R23">
-        <v>1194.26245466084</v>
-      </c>
-      <c r="S23">
-        <v>0.1227712448150039</v>
-      </c>
-      <c r="T23">
-        <v>0.1359540404865367</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>39.03970533333333</v>
-      </c>
-      <c r="H24">
-        <v>117.119116</v>
-      </c>
-      <c r="I24">
-        <v>0.130864673458917</v>
-      </c>
-      <c r="J24">
-        <v>0.1446296420352789</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.07911866666666666</v>
-      </c>
-      <c r="N24">
-        <v>0.237356</v>
-      </c>
-      <c r="O24">
-        <v>0.02183747669850171</v>
-      </c>
-      <c r="P24">
-        <v>0.02188079155668931</v>
-      </c>
-      <c r="Q24">
-        <v>3.088769433032888</v>
-      </c>
-      <c r="R24">
-        <v>27.798924897296</v>
-      </c>
-      <c r="S24">
-        <v>0.002857754257316136</v>
-      </c>
-      <c r="T24">
-        <v>0.003164611050292527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>39.03970533333333</v>
-      </c>
-      <c r="H25">
-        <v>117.119116</v>
-      </c>
-      <c r="I25">
-        <v>0.130864673458917</v>
-      </c>
-      <c r="J25">
-        <v>0.1446296420352789</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.1234363333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.370309</v>
-      </c>
-      <c r="O25">
-        <v>0.03406955863237277</v>
-      </c>
-      <c r="P25">
-        <v>0.03413713595007526</v>
-      </c>
-      <c r="Q25">
-        <v>4.818918080760444</v>
-      </c>
-      <c r="R25">
-        <v>43.370262726844</v>
-      </c>
-      <c r="S25">
-        <v>0.004458501665314891</v>
-      </c>
-      <c r="T25">
-        <v>0.004937241752569034</v>
+        <v>0.00114972529748124</v>
       </c>
     </row>
   </sheetData>
